--- a/src/test/resources/data/jdgroupTA423.xlsx
+++ b/src/test/resources/data/jdgroupTA423.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5249BC3-633B-4FB8-AEFD-602BC22DB44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="evs_SAP_OrderRelated++" sheetId="93" r:id="rId1"/>
@@ -89,12 +88,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,12 +132,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,12 +176,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-3C00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2748,7 +2747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -3454,9 +3453,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="145">
     <dxf>
@@ -4978,7 +4977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5011,26 +5010,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5063,23 +5045,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5255,23 +5220,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="38.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="99"/>
-    <col min="4" max="4" width="11.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="38.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="99"/>
+    <col min="4" max="4" width="11.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
@@ -5305,24 +5270,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1">
@@ -5389,25 +5354,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="15.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5440,32 +5405,32 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"payUcreditcard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="99"/>
+    <col min="6" max="6" width="16.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5511,38 +5476,38 @@
     <cfRule type="duplicateValues" dxfId="94" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="22.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="99"/>
-    <col min="5" max="5" width="14.1796875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="99"/>
-    <col min="9" max="9" width="13.1796875" style="99" customWidth="1"/>
-    <col min="10" max="12" width="9.1796875" style="99"/>
-    <col min="13" max="14" width="12.1796875" style="99" customWidth="1"/>
-    <col min="15" max="15" width="23.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="99" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="22.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="99"/>
+    <col min="5" max="5" width="14.140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="99"/>
+    <col min="9" max="9" width="13.140625" style="99" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="99"/>
+    <col min="13" max="14" width="12.140625" style="99" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="99" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30">
       <c r="A1" s="172" t="s">
         <v>34</v>
       </c>
@@ -5650,8 +5615,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5659,33 +5624,33 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="30"/>
+    <col min="12" max="12" width="20.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="109" customFormat="1">
@@ -6062,28 +6027,28 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S20 T7:T14 P7:P1048576 Q7:R22 P2:T3" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S20 T7:T14 P7:P1048576 Q7:R22 P2:T3">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576 N2:N3" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576 N2:N3">
       <formula1>"ID,Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 M2:M1048576 I2:I3" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 M2:M1048576 I2:I3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N6" xr:uid="{00000000-0002-0000-0D00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N6">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 P4:T6" xr:uid="{00000000-0002-0000-0D00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 P4:T6">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{00000000-0002-0000-0D00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6091,33 +6056,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="101" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="101" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="101"/>
+    <col min="4" max="4" width="26.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="101" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="173" t="s">
         <v>34</v>
       </c>
@@ -6230,12 +6195,12 @@
     <cfRule type="duplicateValues" dxfId="92" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6243,9 +6208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -6256,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6266,21 +6231,21 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="101" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" style="101" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" style="101" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="101"/>
+    <col min="4" max="4" width="27.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="101" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6496,7 +6461,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.65" customHeight="1">
+    <row r="7" spans="1:12" ht="12.6" customHeight="1">
       <c r="A7" s="101">
         <v>31</v>
       </c>
@@ -7465,13 +7430,13 @@
     <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16" xr:uid="{00000000-0002-0000-0F00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7481,13 +7446,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -7500,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7510,29 +7475,29 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="109" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="109" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="109" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="109" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="109" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" style="109" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" style="109" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" style="109" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1796875" style="109" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="109"/>
+    <col min="13" max="13" width="20.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8055,7 +8020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="30">
       <c r="A9" s="103">
         <v>23</v>
       </c>
@@ -8120,7 +8085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="30">
       <c r="A10" s="103">
         <v>24</v>
       </c>
@@ -8757,21 +8722,21 @@
     <cfRule type="duplicateValues" dxfId="79" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32" xr:uid="{00000000-0002-0000-1000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32" xr:uid="{00000000-0002-0000-1000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32" xr:uid="{00000000-0002-0000-1000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8779,26 +8744,26 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8867,8 +8832,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8876,20 +8841,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="4" max="4" width="24.28515625" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="110" customFormat="1">
@@ -8926,19 +8891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="99"/>
+    <col min="5" max="5" width="13.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8975,31 +8940,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9197,17 +9162,17 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9240,24 +9205,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9296,26 +9261,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="79"/>
+    <col min="4" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9408,20 +9373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="75"/>
+    <col min="4" max="4" width="19.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9564,7 +9529,7 @@
     <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9573,21 +9538,21 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="72"/>
+    <col min="8" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9783,35 +9748,35 @@
     <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-1800-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-1800-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="49"/>
+    <col min="5" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10190,7 +10155,7 @@
     <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10199,19 +10164,19 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10291,21 +10256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10354,29 +10319,29 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="35"/>
+    <col min="13" max="13" width="17.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -10510,10 +10475,10 @@
     <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-1C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10522,20 +10487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="166" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10638,16 +10603,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -10655,25 +10620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10771,13 +10736,13 @@
     <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-1D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-1D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10786,28 +10751,28 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="35"/>
+    <col min="10" max="10" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10923,7 +10888,7 @@
     <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10931,7 +10896,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1E00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -10944,24 +10909,24 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="35"/>
+    <col min="8" max="8" width="18.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11050,7 +11015,7 @@
     <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11060,38 +11025,38 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="35"/>
-    <col min="15" max="15" width="23.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="35"/>
+    <col min="14" max="14" width="9.140625" style="35"/>
+    <col min="15" max="15" width="23.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -11306,25 +11271,25 @@
     <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-2000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-2000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-2000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-2000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-2000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-2000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11334,22 +11299,22 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11405,15 +11370,15 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="34"/>
@@ -11460,25 +11425,25 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="28"/>
+    <col min="10" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11551,7 +11516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11562,42 +11527,42 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="10" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="10"/>
+    <col min="27" max="27" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -12201,61 +12166,61 @@
     <cfRule type="duplicateValues" dxfId="40" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-2400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2400-000002000000}"/>
-    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2400-000003000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="11"/>
+    <col min="28" max="28" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -12877,7 +12842,7 @@
     <cfRule type="duplicateValues" dxfId="34" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12886,7 +12851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12897,14 +12862,14 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13340,7 +13305,7 @@
     <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13349,21 +13314,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13428,31 +13393,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="37"/>
+    <col min="11" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1">
@@ -13882,17 +13847,17 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14110,7 +14075,7 @@
     <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14119,33 +14084,33 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
@@ -14395,7 +14360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -14445,7 +14410,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A7" s="15">
         <v>31</v>
       </c>
@@ -14986,14 +14951,14 @@
     <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-2900-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-2900-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-2900-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-2900-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-2900-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-2900-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-2900-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -15001,18 +14966,18 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="28"/>
+    <col min="1" max="1" width="21.140625" style="28"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="28"/>
+    <col min="3" max="3" width="21.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15032,7 +14997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -15043,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="44">
         <v>2</v>
       </c>
@@ -15054,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="44">
         <v>3</v>
       </c>
@@ -15065,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="44">
         <v>4</v>
       </c>
@@ -15076,7 +15041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="44">
         <v>5</v>
       </c>
@@ -15131,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="44">
         <v>19</v>
       </c>
@@ -15171,25 +15136,25 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15334,31 +15299,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-2B00-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-2B00-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-2B00-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-2B00-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-2B00-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15375,7 +15340,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="15">
         <v>26</v>
       </c>
@@ -15389,7 +15354,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="15">
         <v>27</v>
       </c>
@@ -15403,7 +15368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="15">
         <v>28</v>
       </c>
@@ -15417,7 +15382,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="15">
         <v>29</v>
       </c>
@@ -15431,7 +15396,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -15445,7 +15410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="15">
         <v>31</v>
       </c>
@@ -15501,7 +15466,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="130">
         <v>40</v>
       </c>
@@ -15515,7 +15480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="60">
         <v>41</v>
       </c>
@@ -15543,7 +15508,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="99" customFormat="1">
+    <row r="14" spans="1:4" s="99" customFormat="1" ht="30">
       <c r="A14" s="103">
         <v>1</v>
       </c>
@@ -15589,26 +15554,26 @@
     <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2C00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15856,19 +15821,19 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="37"/>
+    <col min="5" max="5" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15948,7 +15913,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -16113,7 +16078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16123,13 +16088,13 @@
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="10"/>
+    <col min="4" max="4" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16146,7 +16111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="15">
         <v>26</v>
       </c>
@@ -16158,7 +16123,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="29">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="15">
         <v>27</v>
       </c>
@@ -16170,7 +16135,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="15">
         <v>28</v>
       </c>
@@ -16182,7 +16147,7 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="15">
         <v>29</v>
       </c>
@@ -16194,7 +16159,7 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -16206,7 +16171,7 @@
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="15">
         <v>31</v>
       </c>
@@ -16266,7 +16231,7 @@
       </c>
       <c r="D11" s="103"/>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="15">
         <v>39</v>
       </c>
@@ -16278,7 +16243,7 @@
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="29">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="15">
         <v>40</v>
       </c>
@@ -16290,7 +16255,7 @@
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="15">
         <v>41</v>
       </c>
@@ -16350,20 +16315,20 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16413,7 +16378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16424,15 +16389,15 @@
       <selection pane="bottomRight" activeCell="E38" sqref="E38:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="5" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17175,7 +17140,7 @@
     <cfRule type="duplicateValues" dxfId="138" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17183,16 +17148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -17291,21 +17256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="30"/>
+    <col min="4" max="4" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17391,7 +17356,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-3200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Reuse,Redeem"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17401,21 +17366,21 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17485,22 +17450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="110" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="110" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="110" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="110" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" style="110" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="110"/>
+    <col min="6" max="6" width="23.140625" style="110" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17923,7 +17888,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.15" customHeight="1">
+    <row r="22" spans="1:6" ht="14.1" customHeight="1">
       <c r="A22" s="56">
         <v>64</v>
       </c>
@@ -18018,41 +17983,41 @@
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-3400-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-3400-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" display="Password@123" xr:uid="{00000000-0004-0000-3400-000002000000}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{00000000-0004-0000-3400-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{00000000-0004-0000-3400-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-3400-000005000000}"/>
-    <hyperlink ref="F14" r:id="rId7" display="Password@123" xr:uid="{00000000-0004-0000-3400-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-3400-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-3400-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-3400-000009000000}"/>
-    <hyperlink ref="F17" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-3400-00000A000000}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{00000000-0004-0000-3400-00000B000000}"/>
-    <hyperlink ref="F18" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-3400-00000C000000}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{00000000-0004-0000-3400-00000D000000}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{00000000-0004-0000-3400-00000E000000}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-3400-00000F000000}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-3400-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId18" xr:uid="{00000000-0004-0000-3400-000011000000}"/>
-    <hyperlink ref="F19" r:id="rId19" display="Password@123" xr:uid="{00000000-0004-0000-3400-000012000000}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-3400-000013000000}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{00000000-0004-0000-3400-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId22" display="Password@123" xr:uid="{00000000-0004-0000-3400-000015000000}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{00000000-0004-0000-3400-000016000000}"/>
-    <hyperlink ref="F15" r:id="rId24" display="Password@123" xr:uid="{00000000-0004-0000-3400-000017000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-3400-000018000000}"/>
-    <hyperlink ref="E10" r:id="rId26" xr:uid="{00000000-0004-0000-3400-000019000000}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{00000000-0004-0000-3400-00001A000000}"/>
-    <hyperlink ref="E9" r:id="rId28" xr:uid="{00000000-0004-0000-3400-00001B000000}"/>
-    <hyperlink ref="F9" r:id="rId29" xr:uid="{00000000-0004-0000-3400-00001C000000}"/>
-    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123" xr:uid="{00000000-0004-0000-3400-00001D000000}"/>
-    <hyperlink ref="F3" r:id="rId31" xr:uid="{00000000-0004-0000-3400-00001E000000}"/>
-    <hyperlink ref="F4" r:id="rId32" xr:uid="{00000000-0004-0000-3400-00001F000000}"/>
-    <hyperlink ref="F5" r:id="rId33" xr:uid="{00000000-0004-0000-3400-000020000000}"/>
-    <hyperlink ref="F6" r:id="rId34" xr:uid="{00000000-0004-0000-3400-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-3400-000022000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" display="Password@123"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7" display="Password@123"/>
+    <hyperlink ref="F12" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="E20" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E16" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19" display="Password@123"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E11" r:id="rId21"/>
+    <hyperlink ref="F11" r:id="rId22" display="Password@123"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123"/>
+    <hyperlink ref="F3" r:id="rId31"/>
+    <hyperlink ref="F4" r:id="rId32"/>
+    <hyperlink ref="F5" r:id="rId33"/>
+    <hyperlink ref="F6" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
@@ -18060,15 +18025,15 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18236,20 +18201,20 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18323,28 +18288,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-3600-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-3600-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18387,27 +18352,27 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18488,28 +18453,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-3800-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18619,7 +18584,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021" xr:uid="{00000000-0004-0000-3900-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18627,26 +18592,26 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -18754,9 +18719,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-3A00-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-3A00-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-3A00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -18764,22 +18729,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18953,19 +18918,19 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -18982,7 +18947,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.65" customHeight="1">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -18993,7 +18958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="99" customFormat="1" ht="24.65" customHeight="1">
+    <row r="3" spans="1:4" s="99" customFormat="1" ht="24.6" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -19010,31 +18975,31 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -19140,7 +19105,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="15">
         <v>8</v>
       </c>
@@ -19479,17 +19444,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-3C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-3C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3C00-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3C00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3C00-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -19498,16 +19463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19539,21 +19504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -19643,19 +19608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -19847,21 +19812,21 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19951,21 +19916,21 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20055,16 +20020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20428,21 +20393,21 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20532,21 +20497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20636,7 +20601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -20646,25 +20611,25 @@
       <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="60" customWidth="1"/>
-    <col min="2" max="2" width="93.54296875" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="118" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.1796875" style="118" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.26953125" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" style="118" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="118"/>
+    <col min="2" max="2" width="93.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="118" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="118" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -20729,7 +20694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="29">
+    <row r="2" spans="1:20" ht="30">
       <c r="A2" s="127">
         <v>1</v>
       </c>
@@ -20769,7 +20734,7 @@
       <c r="O2" s="111"/>
       <c r="P2" s="111"/>
     </row>
-    <row r="3" spans="1:20" ht="29">
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="127">
         <v>2</v>
       </c>
@@ -20810,7 +20775,7 @@
       <c r="P3" s="111"/>
       <c r="Q3" s="111"/>
     </row>
-    <row r="4" spans="1:20" ht="29">
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="127">
         <v>3</v>
       </c>
@@ -20849,7 +20814,7 @@
       <c r="P4" s="111"/>
       <c r="Q4" s="111"/>
     </row>
-    <row r="5" spans="1:20" ht="29">
+    <row r="5" spans="1:20" ht="30">
       <c r="A5" s="127">
         <v>4</v>
       </c>
@@ -20890,7 +20855,7 @@
       <c r="P5" s="111"/>
       <c r="Q5" s="111"/>
     </row>
-    <row r="6" spans="1:20" ht="29">
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="127">
         <v>5</v>
       </c>
@@ -20931,7 +20896,7 @@
       <c r="P6" s="111"/>
       <c r="Q6" s="111"/>
     </row>
-    <row r="7" spans="1:20" ht="29">
+    <row r="7" spans="1:20" ht="30">
       <c r="A7" s="124">
         <v>6</v>
       </c>
@@ -20970,7 +20935,7 @@
       <c r="P7" s="111"/>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="1:20" ht="29">
+    <row r="8" spans="1:20" ht="30">
       <c r="A8" s="124">
         <v>7</v>
       </c>
@@ -21009,7 +20974,7 @@
       <c r="P8" s="111"/>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="1:20" ht="29">
+    <row r="9" spans="1:20" ht="30">
       <c r="A9" s="124">
         <v>8</v>
       </c>
@@ -21046,7 +21011,7 @@
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="1:20" ht="29">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="124">
         <v>9</v>
       </c>
@@ -21085,7 +21050,7 @@
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="1:20" ht="29">
+    <row r="11" spans="1:20" ht="30">
       <c r="A11" s="124">
         <v>10</v>
       </c>
@@ -21124,7 +21089,7 @@
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="1:20" ht="29">
+    <row r="12" spans="1:20" ht="30">
       <c r="A12" s="124">
         <v>11</v>
       </c>
@@ -21163,7 +21128,7 @@
       <c r="P12" s="111"/>
       <c r="Q12" s="111"/>
     </row>
-    <row r="13" spans="1:20" ht="29">
+    <row r="13" spans="1:20" ht="30">
       <c r="A13" s="124">
         <v>12</v>
       </c>
@@ -21202,7 +21167,7 @@
       <c r="P13" s="111"/>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="1:20" ht="29">
+    <row r="14" spans="1:20" ht="30">
       <c r="A14" s="127">
         <v>13</v>
       </c>
@@ -21241,7 +21206,7 @@
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
     </row>
-    <row r="15" spans="1:20" ht="29">
+    <row r="15" spans="1:20" ht="30">
       <c r="A15" s="127">
         <v>14</v>
       </c>
@@ -21280,7 +21245,7 @@
       <c r="P15" s="111"/>
       <c r="Q15" s="111"/>
     </row>
-    <row r="16" spans="1:20" ht="29">
+    <row r="16" spans="1:20" ht="30">
       <c r="A16" s="134">
         <v>15</v>
       </c>
@@ -21323,7 +21288,7 @@
       <c r="P16" s="111"/>
       <c r="Q16" s="111"/>
     </row>
-    <row r="17" spans="1:17" ht="29">
+    <row r="17" spans="1:17" ht="30">
       <c r="A17" s="134">
         <v>16</v>
       </c>
@@ -21366,7 +21331,7 @@
       <c r="P17" s="111"/>
       <c r="Q17" s="111"/>
     </row>
-    <row r="18" spans="1:17" ht="29">
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="134">
         <v>17</v>
       </c>
@@ -21409,7 +21374,7 @@
       <c r="P18" s="111"/>
       <c r="Q18" s="111"/>
     </row>
-    <row r="19" spans="1:17" ht="29">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="134">
         <v>18</v>
       </c>
@@ -21452,7 +21417,7 @@
       <c r="P19" s="111"/>
       <c r="Q19" s="111"/>
     </row>
-    <row r="20" spans="1:17" ht="29">
+    <row r="20" spans="1:17" ht="30">
       <c r="A20" s="134">
         <v>19</v>
       </c>
@@ -21495,7 +21460,7 @@
       <c r="P20" s="111"/>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="1:17" ht="29">
+    <row r="21" spans="1:17" ht="30">
       <c r="A21" s="134">
         <v>20</v>
       </c>
@@ -22259,7 +22224,7 @@
       <c r="O39" s="111"/>
       <c r="P39" s="111"/>
     </row>
-    <row r="40" spans="1:20" ht="29">
+    <row r="40" spans="1:20" ht="45">
       <c r="A40" s="129">
         <v>39</v>
       </c>
@@ -22317,7 +22282,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="29">
+    <row r="41" spans="1:20" ht="45">
       <c r="A41" s="129">
         <v>40</v>
       </c>
@@ -22375,7 +22340,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="29">
+    <row r="42" spans="1:20" ht="45">
       <c r="A42" s="129">
         <v>41</v>
       </c>
@@ -24191,266 +24156,266 @@
     <cfRule type="duplicateValues" dxfId="100" priority="94"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00003E000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00003F000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000042000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000043000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000044000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000045000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000046000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000047000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000048000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000049000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00004A000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00004B000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00004C000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-00004D000000}"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-00004E000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00004F000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000050000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000051000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000052000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000053000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000054000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000055000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000056000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000057000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000058000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000059000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00005A000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00005B000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00005C000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00005D000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-00005E000000}"/>
-    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-00005F000000}"/>
-    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000062000000}"/>
-    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000063000000}"/>
-    <hyperlink ref="H33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000064000000}"/>
-    <hyperlink ref="I33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000065000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000066000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000067000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000068000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000069000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0600-00006A000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0600-00006B000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00006C000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00006D000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00006E000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00006F000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000070000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000071000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0600-000072000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0600-000073000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0600-000074000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0600-000075000000}"/>
-    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0600-000076000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000077000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000078000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0600-000079000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-00007A000000}"/>
-    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00007B000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-00007C000000}"/>
-    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00007D000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00007E000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0600-00007F000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0600-000080000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000081000000}"/>
-    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0600-000082000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0600-000083000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0600-000084000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0600-000085000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000086000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000087000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-000088000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-000089000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-00008A000000}"/>
-    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-00008B000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00008C000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-00008D000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00008E000000}"/>
-    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00008F000000}"/>
-    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-000090000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000091000000}"/>
-    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000092000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0600-000093000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0600-000094000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0600-000095000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0600-000096000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000097000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-000098000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000099000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009A000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00009B000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00009C000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009D000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009E000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009F000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000A0000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A1000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A2000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A3000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A4000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A5000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A6000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A7000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000A8000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000A9000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000AA000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0600-0000AB000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000AC000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000AD000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000AE000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000AF000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000B0000000}"/>
-    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000B1000000}"/>
-    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000B2000000}"/>
-    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000B3000000}"/>
-    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000B4000000}"/>
-    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0600-0000B5000000}"/>
-    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0600-0000B6000000}"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000B7000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000B8000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0600-0000B9000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0600-0000BA000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BB000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000BC000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BD000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BE000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000BF000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C0000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C1000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C2000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000C3000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000C4000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000C5000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000C6000000}"/>
-    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000C7000000}"/>
-    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000C8000000}"/>
-    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000C9000000}"/>
-    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000CA000000}"/>
-    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000CB000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000CC000000}"/>
-    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CD000000}"/>
-    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CE000000}"/>
-    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CF000000}"/>
-    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-0000D0000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-0000D1000000}"/>
-    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D2000000}"/>
-    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D3000000}"/>
-    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D4000000}"/>
-    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000D5000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D6000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D7000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D8000000}"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D9000000}"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000DA000000}"/>
-    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000DB000000}"/>
-    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{00000000-0004-0000-0600-0000DC000000}"/>
-    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000DD000000}"/>
-    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000DE000000}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000DF000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000E0000000}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E1000000}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E2000000}"/>
-    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E3000000}"/>
-    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E4000000}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E5000000}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000E6000000}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E7000000}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E8000000}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E9000000}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000EA000000}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000EB000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000EC000000}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-0000ED000000}"/>
-    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000EE000000}"/>
-    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-0600-0000EF000000}"/>
-    <hyperlink ref="H88" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F0000000}"/>
-    <hyperlink ref="H89" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F1000000}"/>
-    <hyperlink ref="H90" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F2000000}"/>
-    <hyperlink ref="H91" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F3000000}"/>
-    <hyperlink ref="H92" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000F4000000}"/>
-    <hyperlink ref="O92" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F5000000}"/>
-    <hyperlink ref="I92" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000F6000000}"/>
-    <hyperlink ref="J92" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000F7000000}"/>
-    <hyperlink ref="L92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000F8000000}"/>
-    <hyperlink ref="K92" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000F9000000}"/>
-    <hyperlink ref="M92" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000FA000000}"/>
-    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000FB000000}"/>
-    <hyperlink ref="H93" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000FC000000}"/>
-    <hyperlink ref="O93" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000FD000000}"/>
-    <hyperlink ref="I93" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000FE000000}"/>
-    <hyperlink ref="J93" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000FF000000}"/>
-    <hyperlink ref="L93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000000010000}"/>
-    <hyperlink ref="K93" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000001010000}"/>
-    <hyperlink ref="M93" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000002010000}"/>
-    <hyperlink ref="P93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000003010000}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="H88" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H89" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H90" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H91" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H92" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="O92" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I92" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="J92" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K92" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M92" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="H93" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="O93" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I93" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="J93" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K93" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M93" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="P93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24458,35 +24423,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="8.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="30"/>
+    <col min="11" max="11" width="18.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="8.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="118" customFormat="1">
@@ -24811,18 +24776,18 @@
     <cfRule type="duplicateValues" dxfId="95" priority="97"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="H2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="I2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="J2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="K2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="M2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="N2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="G3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="G4:G7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="O2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="L2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="G8" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{89539EF9-E3C3-4F57-B7DF-5F59137F8FC3}"/>
+    <hyperlink ref="G2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="I2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="J2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="K2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="M2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="N2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="G3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="G4:G7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="O2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="L2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G8" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24830,18 +24795,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="7.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24872,13 +24837,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24887,7 +24861,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25036,16 +25010,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -25053,7 +25035,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25070,21 +25052,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>